--- a/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.2.xlsx
+++ b/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\13_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17221373-C77E-40EA-B9E9-FBB9ACFDAD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10A407-8C2E-4D70-81F1-9E768ADBB95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="39915" yWindow="870" windowWidth="17250" windowHeight="8970" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OnsensearchDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserchangeServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -922,13 +918,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2024-06-12午後</t>
-    <rPh sb="10" eb="12">
-      <t>ゴゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装日</t>
     <rPh sb="0" eb="3">
       <t>ジッソウビ</t>
@@ -943,9 +932,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松川</t>
+    <t>ChatDataDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChatData.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OnsenDataDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本</t>
     <rPh sb="0" eb="2">
-      <t>マツカワ</t>
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※すみません、前のファイルをそのまま上書きしてしまいました</t>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウワガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1436,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1459,31 +1470,34 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
         <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
       </c>
       <c r="H1" s="11">
         <v>45455</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="11">
+        <v>45461</v>
+      </c>
+      <c r="L1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" t="s">
-        <v>131</v>
-      </c>
       <c r="M1" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="N1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1524,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1542,10 +1556,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1554,7 +1568,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" s="12"/>
     </row>
@@ -1573,10 +1587,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1585,7 +1599,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="12"/>
     </row>
@@ -1604,10 +1618,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1616,7 +1630,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -1635,10 +1649,10 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1647,7 +1661,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" s="12"/>
     </row>
@@ -1666,10 +1680,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1678,7 +1692,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" s="12"/>
     </row>
@@ -1697,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1706,7 +1720,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O8" s="12"/>
     </row>
@@ -1722,10 +1736,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1734,7 +1748,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O9" s="12"/>
     </row>
@@ -1753,7 +1767,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1762,7 +1776,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O10" s="12"/>
     </row>
@@ -1778,10 +1792,10 @@
         <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1790,7 +1804,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" s="12"/>
     </row>
@@ -1806,10 +1820,10 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1818,7 +1832,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O12" s="12"/>
     </row>
@@ -1834,10 +1848,10 @@
         <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1846,7 +1860,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O13" s="12"/>
     </row>
@@ -1862,10 +1876,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1874,7 +1888,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O14" s="12"/>
     </row>
@@ -1890,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1902,7 +1916,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" s="12"/>
     </row>
@@ -1912,16 +1926,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1930,7 +1944,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O16" s="12"/>
     </row>
@@ -1940,16 +1954,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1958,7 +1972,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O17" s="12"/>
     </row>
@@ -1968,16 +1982,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1986,7 +2000,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O18" s="12"/>
     </row>
@@ -1996,16 +2010,16 @@
         <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2014,7 +2028,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O19" s="12"/>
     </row>
@@ -2030,10 +2044,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2042,7 +2056,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O20" s="12"/>
     </row>
@@ -2058,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2070,7 +2084,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O21" s="12"/>
     </row>
@@ -2086,10 +2100,10 @@
         <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -2098,7 +2112,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2114,10 +2128,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -2126,7 +2140,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -2142,10 +2156,10 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -2154,7 +2168,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -2170,10 +2184,10 @@
         <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -2182,7 +2196,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="12"/>
     </row>
@@ -2198,10 +2212,10 @@
         <v>31</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -2210,7 +2224,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="12"/>
     </row>
@@ -2220,16 +2234,16 @@
         <v>25</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
@@ -2238,7 +2252,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="12"/>
     </row>
@@ -2247,16 +2261,16 @@
         <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -2265,13 +2279,13 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
-        <f t="shared" ref="C29:C51" si="1">ROW()-2</f>
+        <f t="shared" ref="C29:C54" si="1">ROW()-2</f>
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2293,7 +2307,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O29" s="12"/>
     </row>
@@ -2309,10 +2323,10 @@
         <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="1"/>
@@ -2321,7 +2335,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O30" s="12"/>
     </row>
@@ -2340,7 +2354,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="1"/>
@@ -2349,7 +2363,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O31" s="12"/>
     </row>
@@ -2368,7 +2382,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="1"/>
@@ -2377,7 +2391,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O32" s="12"/>
     </row>
@@ -2396,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="1"/>
@@ -2405,7 +2419,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O33" s="12"/>
     </row>
@@ -2421,10 +2435,10 @@
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="1"/>
@@ -2433,7 +2447,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O34" s="12"/>
     </row>
@@ -2449,10 +2463,10 @@
         <v>31</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="1"/>
@@ -2461,7 +2475,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O35" s="12"/>
     </row>
@@ -2477,10 +2491,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="1"/>
@@ -2489,7 +2503,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O36" s="12"/>
     </row>
@@ -2505,10 +2519,10 @@
         <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="1"/>
@@ -2517,7 +2531,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O37" s="12"/>
     </row>
@@ -2527,16 +2541,16 @@
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="1"/>
@@ -2545,7 +2559,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O38" s="12"/>
     </row>
@@ -2555,16 +2569,16 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2573,7 +2587,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O39" s="12"/>
     </row>
@@ -2589,10 +2603,10 @@
         <v>18</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2601,7 +2615,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O40" s="12"/>
     </row>
@@ -2617,10 +2631,10 @@
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2629,7 +2643,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O41" s="12"/>
     </row>
@@ -2648,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2657,7 +2671,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O42" s="12"/>
     </row>
@@ -2676,7 +2690,7 @@
         <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2685,13 +2699,12 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
-        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2701,20 +2714,16 @@
         <v>21</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="N44" s="3"/>
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.45">
@@ -2726,13 +2735,13 @@
         <v>17</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2741,26 +2750,25 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
-        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2769,64 +2777,54 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
-        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="N47" s="3"/>
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
-        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="N48" s="3"/>
       <c r="O48" s="12"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.45">
@@ -2835,16 +2833,16 @@
         <v>47</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2853,7 +2851,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O49" s="12"/>
     </row>
@@ -2863,16 +2861,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2881,7 +2879,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O50" s="12"/>
     </row>
@@ -2891,16 +2889,16 @@
         <v>49</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2909,14 +2907,98 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O51" s="12"/>
     </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O54" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N51" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:N51">
-      <sortCondition ref="N2:N51"/>
+  <autoFilter ref="C2:N54" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:N54">
+      <sortCondition ref="N2:N54"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -2934,12 +3016,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="852daf809ddd011eab6f7a9bc2e93e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da593f20671e75e3083145974722a37d" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -3083,16 +3174,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3108,7 +3198,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B34739-5FE0-468C-AA7E-A4F3B879504D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3124,12 +3214,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>